--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\template_state_3.3\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\BNoGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F8E09A-75D1-47B5-B88E-C49BF6F3EC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEE11A9-3321-4D2C-8CFF-D3A6D81DA809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12645" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="ECNBASIC2017.EC1744BASIC-2023-0" sheetId="2" r:id="rId2"/>
-    <sheet name="calc" sheetId="3" r:id="rId3"/>
-    <sheet name="BNoGP" sheetId="4" r:id="rId4"/>
+    <sheet name="ECNBASIC2017.EC1744BASIC-2023-0" sheetId="4" r:id="rId2"/>
+    <sheet name="calc" sheetId="5" r:id="rId3"/>
+    <sheet name="BNoGP" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="income">#REF!</definedName>
@@ -25,6 +25,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,400 +44,400 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="132">
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Number of Gas pumps</t>
+  </si>
+  <si>
+    <t>CleanTechnica</t>
+  </si>
+  <si>
+    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
+  </si>
+  <si>
+    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
+  </si>
+  <si>
+    <t>Number of chargers</t>
+  </si>
+  <si>
+    <t>We assume the number of gas pumps remains relatively constant.</t>
+  </si>
+  <si>
     <t>BNoEVC BAU Number of Gas Pumps</t>
   </si>
   <si>
+    <t>BAU gas pumps</t>
+  </si>
+  <si>
+    <t>Less than 10%</t>
+  </si>
+  <si>
+    <t>10% to less than 20%</t>
+  </si>
+  <si>
+    <t>Gasoline stations</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>20% to less than 30%</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>30% to less than 40%</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>40% to less than 50%</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Range indicating percent of total employees imputed (EMP_IMP)</t>
+  </si>
+  <si>
+    <t>Range indicating percent of total annual payroll imputed (PAYANN_IMP)</t>
+  </si>
+  <si>
+    <t>Range indicating percent of total sales, value of shipments, or revenue imputed (RCPTOT_IMP)</t>
+  </si>
+  <si>
+    <t>Number of employees (EMP)</t>
+  </si>
+  <si>
+    <t>First-quarter payroll ($1,000) (PAYQTR1)</t>
+  </si>
+  <si>
+    <t>Annual payroll ($1,000) (PAYANN)</t>
+  </si>
+  <si>
+    <t>Sales, value of shipments, or revenue ($1,000) (RCPTOT)</t>
+  </si>
+  <si>
+    <t>Number of establishments (ESTAB)</t>
+  </si>
+  <si>
+    <t>Number of firms (FIRM)</t>
+  </si>
+  <si>
+    <t>Year (YEAR)</t>
+  </si>
+  <si>
+    <t>Meaning of NAICS code (NAICS2017_LABEL)</t>
+  </si>
+  <si>
+    <t>2017 NAICS code (NAICS2017)</t>
+  </si>
+  <si>
+    <t>Geographic Area Name (NAME)</t>
+  </si>
+  <si>
+    <t>state percent of total</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Number of Gas pumps</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
     <t>AK</t>
   </si>
   <si>
-    <t>CleanTechnica</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
-    <t>Stop Comparing the Number of Gas Stations to EV Charging Stations</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>https://cleantechnica.com/2018/03/07/stop-comparing-number-gas-stations-ev-charging-stations/</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
-    <t>We assume the number of gas pumps remains relatively constant.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
     <t>HI</t>
   </si>
   <si>
-    <t>Idaho</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
     <t>IA</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>KS</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>KY</t>
   </si>
   <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
     <t>LA</t>
   </si>
   <si>
-    <t>Maine</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>MI</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
     <t>MN</t>
   </si>
   <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
     <t>MO</t>
   </si>
   <si>
-    <t>Montana</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
-    <t>Nevada</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
     <t>NJ</t>
   </si>
   <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
     <t>NM</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
     <t>ND</t>
   </si>
   <si>
-    <t>Ohio</t>
-  </si>
-  <si>
     <t>OH</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>TX</t>
   </si>
   <si>
-    <t>Utah</t>
-  </si>
-  <si>
     <t>UT</t>
   </si>
   <si>
-    <t>Vermont</t>
-  </si>
-  <si>
     <t>VT</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
     <t>WV</t>
   </si>
   <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
     <t>WI</t>
   </si>
   <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>Geographic Area Name (NAME)</t>
-  </si>
-  <si>
-    <t>2017 NAICS code (NAICS2017)</t>
-  </si>
-  <si>
-    <t>Meaning of NAICS code (NAICS2017_LABEL)</t>
-  </si>
-  <si>
-    <t>Year (YEAR)</t>
-  </si>
-  <si>
-    <t>Number of firms (FIRM)</t>
-  </si>
-  <si>
-    <t>Number of establishments (ESTAB)</t>
-  </si>
-  <si>
-    <t>Sales, value of shipments, or revenue ($1,000) (RCPTOT)</t>
-  </si>
-  <si>
-    <t>Annual payroll ($1,000) (PAYANN)</t>
-  </si>
-  <si>
-    <t>First-quarter payroll ($1,000) (PAYQTR1)</t>
-  </si>
-  <si>
-    <t>Number of employees (EMP)</t>
-  </si>
-  <si>
-    <t>Range indicating percent of total sales, value of shipments, or revenue imputed (RCPTOT_IMP)</t>
-  </si>
-  <si>
-    <t>Range indicating percent of total annual payroll imputed (PAYANN_IMP)</t>
-  </si>
-  <si>
-    <t>Range indicating percent of total employees imputed (EMP_IMP)</t>
-  </si>
-  <si>
-    <t>Gasoline stations</t>
-  </si>
-  <si>
-    <t>10% to less than 20%</t>
-  </si>
-  <si>
-    <t>Less than 10%</t>
-  </si>
-  <si>
-    <t>30% to less than 40%</t>
-  </si>
-  <si>
-    <t>20% to less than 30%</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>40% to less than 50%</t>
-  </si>
-  <si>
-    <t>state percent of total</t>
-  </si>
-  <si>
-    <t>Number of chargers</t>
-  </si>
-  <si>
-    <t>BAU gas pumps</t>
   </si>
 </sst>
 </file>
@@ -525,7 +526,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -551,7 +552,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{3F0B3957-5839-491A-BB84-14323CF38870}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,19 +844,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" s="8">
-        <v>45194</v>
+        <v>45258</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,35 +865,35 @@
         <v>CO</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,400 +901,400 @@
         <v>2018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="7" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" s="7" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="7" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="7" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="7" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="7" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="7" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" s="7" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" s="7" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="7" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="7" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A878A66-DCDA-4DE5-BC74-E1AF8C163921}">
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1308,54 +1309,54 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>2017</v>
@@ -1379,28 +1380,28 @@
         <v>17467</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P33" si="0">F2/SUM($F$2:$F$52)</f>
+        <f>F2/SUM($F$2:$F$52)</f>
         <v>2.7936447399214692E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>2017</v>
@@ -1424,28 +1425,28 @@
         <v>1583</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P3:P52" si="0">F3/SUM($F$2:$F$52)</f>
         <v>1.6208860265755965E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2017</v>
@@ -1469,13 +1470,13 @@
         <v>18589</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -1484,13 +1485,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>2017</v>
@@ -1514,13 +1515,13 @@
         <v>12438</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -1529,13 +1530,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>2017</v>
@@ -1559,13 +1560,13 @@
         <v>62475</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -1574,13 +1575,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>447</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>2017</v>
@@ -1604,13 +1605,13 @@
         <v>13738</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -1619,13 +1620,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>2017</v>
@@ -1649,13 +1650,13 @@
         <v>6081</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -1664,13 +1665,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>447</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>2017</v>
@@ -1694,13 +1695,13 @@
         <v>2964</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -1709,13 +1710,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -1739,13 +1740,13 @@
         <v>461</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -1754,13 +1755,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>2017</v>
@@ -1784,13 +1785,13 @@
         <v>46857</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -1799,13 +1800,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>2017</v>
@@ -1829,13 +1830,13 @@
         <v>30155</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -1844,13 +1845,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>2017</v>
@@ -1874,13 +1875,13 @@
         <v>2929</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -1889,13 +1890,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>2017</v>
@@ -1919,13 +1920,13 @@
         <v>6928</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
@@ -1934,13 +1935,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>447</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>2017</v>
@@ -1964,13 +1965,13 @@
         <v>33124</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
@@ -1979,13 +1980,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>447</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>2017</v>
@@ -2009,13 +2010,13 @@
         <v>22974</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -2024,13 +2025,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>447</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>2017</v>
@@ -2054,13 +2055,13 @@
         <v>22390</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
@@ -2069,13 +2070,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>447</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>2017</v>
@@ -2099,13 +2100,13 @@
         <v>12409</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
@@ -2114,13 +2115,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -2144,13 +2145,13 @@
         <v>16800</v>
       </c>
       <c r="K19" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
@@ -2159,13 +2160,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>2017</v>
@@ -2189,13 +2190,13 @@
         <v>19474</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
@@ -2204,13 +2205,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>447</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>2017</v>
@@ -2234,13 +2235,13 @@
         <v>7427</v>
       </c>
       <c r="K21" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
@@ -2249,13 +2250,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>2017</v>
@@ -2279,13 +2280,13 @@
         <v>13835</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
@@ -2294,13 +2295,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>2017</v>
@@ -2324,13 +2325,13 @@
         <v>13079</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
@@ -2339,13 +2340,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>2017</v>
@@ -2369,13 +2370,13 @@
         <v>25605</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
@@ -2384,13 +2385,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>2017</v>
@@ -2414,13 +2415,13 @@
         <v>27858</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
@@ -2429,13 +2430,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>2017</v>
@@ -2459,13 +2460,13 @@
         <v>13105</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
@@ -2474,13 +2475,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>447</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>2017</v>
@@ -2504,13 +2505,13 @@
         <v>30507</v>
       </c>
       <c r="K27" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
@@ -2519,13 +2520,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>447</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>2017</v>
@@ -2549,13 +2550,13 @@
         <v>5375</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="L28" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
@@ -2564,13 +2565,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>447</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>2017</v>
@@ -2594,13 +2595,13 @@
         <v>10516</v>
       </c>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
@@ -2609,13 +2610,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>2017</v>
@@ -2639,13 +2640,13 @@
         <v>8554</v>
       </c>
       <c r="K30" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
@@ -2654,13 +2655,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>447</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>2017</v>
@@ -2684,13 +2685,13 @@
         <v>4573</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
@@ -2699,13 +2700,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>447</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>2017</v>
@@ -2729,13 +2730,13 @@
         <v>19382</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
@@ -2744,13 +2745,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>447</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>2017</v>
@@ -2774,13 +2775,13 @@
         <v>8906</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
@@ -2789,13 +2790,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>447</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>2017</v>
@@ -2819,28 +2820,28 @@
         <v>33856</v>
       </c>
       <c r="K34" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P52" si="1">F34/SUM($F$2:$F$52)</f>
+        <f t="shared" si="0"/>
         <v>4.2879803066681689E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>447</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>2017</v>
@@ -2864,28 +2865,28 @@
         <v>30453</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9854727006388195E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>447</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>2017</v>
@@ -2909,28 +2910,28 @@
         <v>6017</v>
       </c>
       <c r="K36" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0478811465818375E-3</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>2017</v>
@@ -2954,28 +2955,28 @@
         <v>35584</v>
       </c>
       <c r="K37" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.373523216808675E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>2017</v>
@@ -2999,28 +3000,28 @@
         <v>17233</v>
       </c>
       <c r="K38" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L38" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.61395175480415E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>447</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>2017</v>
@@ -3044,28 +3045,28 @@
         <v>11382</v>
       </c>
       <c r="K39" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.546489958307691E-3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>447</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>2017</v>
@@ -3089,28 +3090,28 @@
         <v>41656</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L40" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M40" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3579211053229203E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>447</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>2017</v>
@@ -3134,28 +3135,28 @@
         <v>2120</v>
       </c>
       <c r="K41" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L41" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.773708708578561E-3</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>447</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>2017</v>
@@ -3179,28 +3180,28 @@
         <v>18507</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L42" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2475708379200651E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>447</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>2017</v>
@@ -3224,28 +3225,28 @@
         <v>6903</v>
       </c>
       <c r="K43" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L43" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M43" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4434033405854256E-3</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>447</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>2017</v>
@@ -3269,28 +3270,28 @@
         <v>21298</v>
       </c>
       <c r="K44" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9722022380362142E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>447</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>2017</v>
@@ -3314,28 +3315,28 @@
         <v>84832</v>
       </c>
       <c r="K45" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M45" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="P45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.8275966680824139E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>447</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>2017</v>
@@ -3359,28 +3360,28 @@
         <v>9084</v>
       </c>
       <c r="K46" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L46" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3503280777331868E-3</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>447</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>2017</v>
@@ -3404,28 +3405,28 @@
         <v>3873</v>
       </c>
       <c r="K47" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L47" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M47" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7271710771524412E-3</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>447</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>2017</v>
@@ -3449,28 +3450,28 @@
         <v>27163</v>
       </c>
       <c r="K48" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L48" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0216089244077697E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>447</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>2017</v>
@@ -3494,28 +3495,28 @@
         <v>13959</v>
       </c>
       <c r="K49" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L49" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M49" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7335679428616007E-2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="B50">
         <v>447</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>2017</v>
@@ -3539,28 +3540,28 @@
         <v>9461</v>
       </c>
       <c r="K50" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M50" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.2951226065927589E-3</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>447</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>2017</v>
@@ -3584,28 +3585,28 @@
         <v>26894</v>
       </c>
       <c r="K51" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L51" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M51" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="P51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2692404372058352E-2</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>447</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>2017</v>
@@ -3629,16 +3630,16 @@
         <v>3902</v>
       </c>
       <c r="K52" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L52" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M52" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="P52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9123941440074891E-3</v>
       </c>
     </row>
@@ -3663,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E66FFDB-7EE3-49F8-8320-71DA73BA9070}">
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3674,7 +3675,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f>SUMIFS('ECNBASIC2017.EC1744BASIC-2023-0'!$F$2:$F$52,'ECNBASIC2017.EC1744BASIC-2023-0'!$A$2:$A$52,About!$B$1)/SUM('ECNBASIC2017.EC1744BASIC-2023-0'!$F$2:$F$52)</f>
@@ -3687,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3705,7 +3706,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -3800,18 +3801,18 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="B2" s="12">
         <f>1200000*calc!C2</f>
         <v>18275.273253646992</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:AE2" si="0">B2</f>
+        <f>B2</f>
         <v>18275.273253646992</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:AE2" si="0">C2</f>
         <v>18275.273253646992</v>
       </c>
       <c r="E2">

--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/BNoGP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEE11A9-3321-4D2C-8CFF-D3A6D81DA809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BED4B73-5000-0D4C-BFAE-4A70BD348D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="13040" windowHeight="16900" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -836,13 +836,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,7 +850,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="8">
-        <v>45258</v>
+        <v>45296</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>81</v>
@@ -859,7 +859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="str">
         <f>LOOKUP(B1,E2:F51,F2:F51)</f>
         <v>CO</v>
@@ -871,7 +871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
@@ -907,7 +907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -918,7 +918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" s="7" t="s">
         <v>60</v>
       </c>
@@ -937,7 +937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -948,7 +948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
@@ -967,7 +967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
@@ -975,7 +975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
@@ -983,7 +983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
@@ -991,7 +991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
@@ -999,7 +999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">
         <v>51</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
         <v>49</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
         <v>48</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
         <v>47</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
         <v>45</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24" s="7" t="s">
         <v>43</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28" s="7" t="s">
         <v>38</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E29" s="7" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E30" s="7" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E32" s="7" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E34" s="7" t="s">
         <v>32</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E35" s="7" t="s">
         <v>31</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E37" s="7" t="s">
         <v>29</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E39" s="7" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E41" s="7" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E42" s="7" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E43" s="7" t="s">
         <v>23</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E44" s="7" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E45" s="7" t="s">
         <v>20</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E46" s="7" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E47" s="7" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E48" s="7" t="s">
         <v>17</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" s="7" t="s">
         <v>16</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50" s="7" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E51" s="7" t="s">
         <v>13</v>
       </c>
@@ -1301,13 +1301,13 @@
       <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2.7936447399214692E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1.6208860265755965E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1.4423285284608517E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1.345248723660602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>6.8701297575605239E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>1.5229394378039161E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>9.4999523268815712E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2.2189669668628486E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>7.2809853600187228E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>5.9132002531009198E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>4.4500689093257287E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2.1582920888626928E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>5.9374702043009818E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>3.3813242725515523E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>2.3472509946346073E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1.5229394378039161E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9.72531615945358E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>1.7275004550615852E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2.1556917369484004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>6.9342717714464021E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1.4206589291750817E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>1.7838414132045871E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3.1464258162938054E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1.8731201622619594E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>1.7257668871187234E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2.3550520503774843E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>4.4379339337256973E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>8.5984969965935392E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>7.5843597500195028E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>5.07935407258449E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>2.0378091168338115E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>7.3243245585902627E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>4.2879803066681689E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>3.9854727006388195E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>4.0478811465818375E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>3.373523216808675E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1.61395175480415E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>8.546489958307691E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>3.3579211053229203E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>2.773708708578561E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>2.2475708379200651E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>5.4434033405854256E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>2.9722022380362142E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>9.8275966680824139E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>7.3503280777331868E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>3.7271710771524412E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>3.0216089244077697E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>1.7335679428616007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>8.2951226065927589E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2.2692404372058352E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>2.9123941440074891E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F54" s="10"/>
     </row>
   </sheetData>
@@ -3671,9 +3671,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>80</v>
       </c>
@@ -3698,13 +3698,13 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
